--- a/biology/Médecine/Alan_Garber/Alan_Garber.xlsx
+++ b/biology/Médecine/Alan_Garber/Alan_Garber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alan Michael Garber dit Alan Garber, né le 7 mai 1955, est un médecin et économiste américain, président intérimaire de Harvard, après la démission forcée de Claudine Gay, à la suite de la controverse sur l'antisémitisme à Harvard et des révélations sur ses plagiats[2],[3],[4],[5],[6]. Il est le provost de Harvard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alan Michael Garber dit Alan Garber, né le 7 mai 1955, est un médecin et économiste américain, président intérimaire de Harvard, après la démission forcée de Claudine Gay, à la suite de la controverse sur l'antisémitisme à Harvard et des révélations sur ses plagiats. Il est le provost de Harvard.
 </t>
         </is>
       </c>
@@ -511,17 +523,124 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alan Garber est né le 7 mai 1955 à Rock Island, Illinois[7]. Il est né dans une famille juive[6], ses parents sont Harry et Jean Garber. Il grandit à Rock Island. Harry Garber est né le 5 septembre 1909 et est mort le 19 octobre 1992[8]. Jean Garber, née Bender, est née le 15 juin 1917 à Milwaukee, Wisconsin et est morte le 5 juillet 1996 à Marin County, Californie[9]. Alan Garber est fils unique.
-Études
-Il commence par faire des études en économie à Harvard. Il y termine un BA en économie (1976)[10] puis un MA (1977)[10] et un Doctor of Philosophy (Ph.D.) (1982)[10] . Durant son doctorat en économie, il fait simultanément des études de médecine à l'Université Stanford, où il obtient son doctorat en médecine (MD) (1983). Il est interne en médecine interne au Brigham and Women's Hospital, affilié à Harvard (1983-1986)[10] .
-Administrateur et professeur
-Alan Garber devient le 1er septembre 2011, le provost de Harvard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alan Garber est né le 7 mai 1955 à Rock Island, Illinois. Il est né dans une famille juive, ses parents sont Harry et Jean Garber. Il grandit à Rock Island. Harry Garber est né le 5 septembre 1909 et est mort le 19 octobre 1992. Jean Garber, née Bender, est née le 15 juin 1917 à Milwaukee, Wisconsin et est morte le 5 juillet 1996 à Marin County, Californie. Alan Garber est fils unique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alan_Garber</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Garber</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commence par faire des études en économie à Harvard. Il y termine un BA en économie (1976) puis un MA (1977) et un Doctor of Philosophy (Ph.D.) (1982) . Durant son doctorat en économie, il fait simultanément des études de médecine à l'Université Stanford, où il obtient son doctorat en médecine (MD) (1983). Il est interne en médecine interne au Brigham and Women's Hospital, affilié à Harvard (1983-1986) .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alan_Garber</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Garber</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Administrateur et professeur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alan Garber devient le 1er septembre 2011, le provost de Harvard.
 Il est le Mallinckrodt Professor of Health Care Policy à la Harvard Medical School, professeur d'économie à la Faculté des Arts et des Sciences de Harvard, professeur of Public Policy au John F. Kennedy School of Government, et professeur au Department of Health Policy and Management à la Harvard T.H. Chan School of Public Health.
 Il est depuis janvier 2024, le président par intérim de Harvard, à la suite de la démission de Claudine Gay.
-Famille
-Alan Garber est marié à Anne M. Yahanda, MD [10] .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alan_Garber</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alan_Garber</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alan Garber est marié à Anne M. Yahanda, MD  .
 </t>
         </is>
       </c>
